--- a/biology/Botanique/Zygogynum_tanyostigma/Zygogynum_tanyostigma.xlsx
+++ b/biology/Botanique/Zygogynum_tanyostigma/Zygogynum_tanyostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygogynum tanyostigma est une espèce d'arbuste de la famille des Winteraceae, endémique à la Nouvelle-Calédonie
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbuste de 6 m de haut aux rameaux grêles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste de 6 m de haut aux rameaux grêles.
 Fleurs rougeâtres, solitaires ou sur des inflorescences partielles 'jusqu'à 30 fleurs).
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique au Nord-Est de la Grande Terre, au Mont Panié[1], en forêt dense humide et dans le maquis de montagne, sur des sols plus ou moins profonds voir érodés de substrat sédimentaire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique au Nord-Est de la Grande Terre, au Mont Panié, en forêt dense humide et dans le maquis de montagne, sur des sols plus ou moins profonds voir érodés de substrat sédimentaire.
 L'espèce est extrêmement localisée, mais bien que située dans une zone protégée, elle n'est que rarement mentionnée.
 </t>
         </is>
